--- a/biology/Microbiologie/Pyrobaculum/Pyrobaculum.xlsx
+++ b/biology/Microbiologie/Pyrobaculum/Pyrobaculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrobaculum est un genre d'archées de la famille des Thermoproteaceae. Il s'agit d'un microorganisme hyperthermophile à Gram négatif en forme de bâtonnet, entouré d'une couche S de sous-unités protéiques.
 En conditions anaérobies, ces archées réduisent les nitrates NO3– en azote N2 par dénitrification. La plupart de ces espèces sont chimiolithoautotrophes en réduisant le soufre ou organotrophes par respiration soufrée ou par fermentation. Les cellules sont en forme de bâtonnets avec des extrémités presque rectangulaires et mesurent environ 1,5  à   8 μm de long pour 0,5  à   0,6 μm de large. Elles sont généralement mobiles grâce à des flagelles, ayant une ciliature péritriche ou bipolaire polytriche. Elles forment des colonies rondes de couleur grise à vert foncé. Les espèces sont ou bien aérobies facultatives ou bien strictement anaérobies. Leur croissance a été observée sur la levure de bière, le peptone, l'extrait de viande, mais pas sur le galactose, le glucose, le maltose, l'amidon, l'éthanol, le méthanol, le formamide, l'acide formique, l'acide malique, l'acide propionique, l'acide lactique et l'acide acétique.
